--- a/public/templates/trip_ticket_template.xlsx
+++ b/public/templates/trip_ticket_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogel\Herd\motor-pool\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569975E-A5CB-4E5E-8D8E-1438BC550D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01412B2-AA84-4C0F-A981-00AF12154BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{4E48AFE0-1585-4383-9205-AC315E39B5C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E48AFE0-1585-4383-9205-AC315E39B5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,9 +66,6 @@
     <t>Assigned Vehicle:</t>
   </si>
   <si>
-    <t>Authorized By:</t>
-  </si>
-  <si>
     <t>Plate No:</t>
   </si>
   <si>
@@ -193,6 +187,9 @@
   </si>
   <si>
     <t>VPAD</t>
+  </si>
+  <si>
+    <t>Authorized by:</t>
   </si>
 </sst>
 </file>
@@ -203,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +270,23 @@
       <color theme="1"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -493,6 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,7 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,8 +670,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,9 +857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -879,7 +897,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -985,7 +1003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1127,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,233 +1155,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F6D7B-DB02-485C-8ABF-6DAC8E01CD8F}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:I26"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" customWidth="1"/>
-    <col min="9" max="9" width="0.53125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="0.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
+      <c r="A3" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+        <v>42</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="1.5" customHeight="1">
       <c r="A18" s="13"/>
@@ -1380,212 +1398,214 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+        <v>43</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
-      <c r="A24" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="A24" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="G25" s="32" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="31" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.5">
+      <c r="A27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="17"/>
-      <c r="G27" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
+      <c r="G27" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="C28" s="19"/>
       <c r="D28" s="4"/>
-      <c r="G28" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="47"/>
+      <c r="G28" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="65"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="G29" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="G29" s="57" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="G30" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="54" t="s">
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:10" ht="6" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="G30" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" ht="6" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52" t="s">
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="52" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
@@ -1665,308 +1685,308 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="0.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="33"/>
+      <c r="A42" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="34"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="33"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="0.75" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="33"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="1.5" hidden="1" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:9" ht="11.25" hidden="1" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:9" ht="0.75" hidden="1" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" hidden="1" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:9" hidden="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="0.75" hidden="1" customHeight="1">
-      <c r="A49" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
+      <c r="A49" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="38"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="37"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="43" t="s">
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" t="s">
+      <c r="G52" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="31" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="43"/>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="42"/>
-      <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="31" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="31" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="47" t="s">
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="45" t="s">
+      <c r="B56" s="47"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="45" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="43" t="s">
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="31" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="34"/>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="43" t="s">
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="31" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="43" t="s">
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="31" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:9" ht="8.25" customHeight="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="36"/>
-    </row>
-    <row r="61" spans="1:9" ht="8.25" customHeight="1">
-      <c r="A61" s="37"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="36"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="31" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="43"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="42"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2013,7 +2033,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:I26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="G28:I28"/>
@@ -2024,7 +2043,8 @@
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H26"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
@@ -2103,7 +2123,7 @@
     <mergeCell ref="G57:I57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>